--- a/data/trans_dic/P02E$ssociales-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P02E$ssociales-Dificultad-trans_dic.xlsx
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003236681704463461</v>
+        <v>0.003203172885146454</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007004993103982161</v>
+        <v>0.009321027147496769</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003188842477542207</v>
+        <v>0.003192317744908848</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.005883932099766669</v>
+        <v>0.005746806412446331</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.00699604499849429</v>
+        <v>0.006805990385661129</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002763454789811875</v>
+        <v>0.002739003558787791</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006210540739356131</v>
+        <v>0.006170653932156507</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009685123964616536</v>
+        <v>0.01066099066770555</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07282063375472103</v>
+        <v>0.06926894498442225</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02693143036759986</v>
+        <v>0.02850772468003451</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04281940427197145</v>
+        <v>0.04272160333791442</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02783168197004849</v>
+        <v>0.02980178286374649</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02847769598876584</v>
+        <v>0.02624244481747339</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0331181756328355</v>
+        <v>0.03281732472538176</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02671648209769473</v>
+        <v>0.02692945872066501</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02270337679573166</v>
+        <v>0.02187406102752428</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02956559970911232</v>
+        <v>0.03044180817704074</v>
       </c>
     </row>
     <row r="7">
@@ -785,24 +785,24 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.007235600477544864</v>
+        <v>0.007399025899365683</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005346565325425533</v>
+        <v>0.005307469080682607</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>0.002224077099864431</v>
+        <v>0.002178012420347912</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.00657269629804394</v>
+        <v>0.006702149752219055</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004028796136246458</v>
+        <v>0.004376656330218179</v>
       </c>
     </row>
     <row r="9">
@@ -814,24 +814,24 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.04084417441265045</v>
+        <v>0.04461199337642759</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05259049720391436</v>
+        <v>0.04981381959336308</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.02172265981487848</v>
+        <v>0.0205314340189854</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02843474519818249</v>
+        <v>0.02798427915860302</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.02361001265781936</v>
+        <v>0.02457722236021467</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02535016672301052</v>
+        <v>0.0265423274948579</v>
       </c>
     </row>
     <row r="10">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0082828105764559</v>
+        <v>0.008540545931534638</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005597651732734497</v>
+        <v>0.00558070351313061</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.00903459616609821</v>
+        <v>0.008887604057630265</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -916,31 +916,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01963440299676376</v>
+        <v>0.02050850058508789</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.048560047001932</v>
+        <v>0.05018362368861397</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03041462364687156</v>
+        <v>0.02753864050632048</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01775210268907565</v>
+        <v>0.0175283185051224</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03261623712429376</v>
+        <v>0.03187607939191216</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02673146879610688</v>
+        <v>0.02091410113237274</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01247145319257005</v>
+        <v>0.01093736066009242</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0317144137089169</v>
+        <v>0.03154132065316369</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01665001770599398</v>
+        <v>0.01657275648803472</v>
       </c>
     </row>
     <row r="13">
@@ -998,14 +998,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.00572631500799691</v>
+        <v>0.005774219220849421</v>
       </c>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006658175820653483</v>
+        <v>0.006376414336848081</v>
       </c>
       <c r="K14" s="5" t="inlineStr"/>
     </row>
@@ -1018,21 +1018,21 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.04865195073791459</v>
+        <v>0.05040950661934778</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.05747093937904277</v>
+        <v>0.05765515627178576</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05204239188728518</v>
+        <v>0.05636717722521847</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.03164824116649398</v>
+        <v>0.03110603852888611</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03856490209938029</v>
+        <v>0.03643438947022284</v>
       </c>
       <c r="K15" s="5" t="inlineStr"/>
     </row>
@@ -1086,28 +1086,28 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009672833054072655</v>
+        <v>0.009465821522364271</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007181950651828043</v>
+        <v>0.007006576825521761</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.001810175501259376</v>
+        <v>0.001885858176227267</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.008143495717428752</v>
+        <v>0.00799349324509107</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.00462676703367491</v>
+        <v>0.004902990042848047</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.001791506059917269</v>
+        <v>0.001806905266881787</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01045832727617197</v>
+        <v>0.01000223683443975</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.006934319311446953</v>
+        <v>0.006988058215052741</v>
       </c>
     </row>
     <row r="18">
@@ -1118,31 +1118,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01056779594601178</v>
+        <v>0.01039348070641783</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02695873966058585</v>
+        <v>0.02678560611900682</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02443313199653158</v>
+        <v>0.02346236706443229</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01060736916052706</v>
+        <v>0.01162153393977438</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01938757094267689</v>
+        <v>0.01977784619753982</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01651292760983457</v>
+        <v>0.01753134674709488</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.008131534197655233</v>
+        <v>0.008072401321023253</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01981920455826751</v>
+        <v>0.0198994312953647</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01683300340460664</v>
+        <v>0.01745785579475011</v>
       </c>
     </row>
     <row r="19">
@@ -1374,28 +1374,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2049</v>
+        <v>2726</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3022</v>
+        <v>2952</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3144</v>
+        <v>3059</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5193</v>
+        <v>5159</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7185</v>
+        <v>7909</v>
       </c>
     </row>
     <row r="7">
@@ -1406,31 +1406,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5708</v>
+        <v>5429</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8684</v>
+        <v>9192</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12523</v>
+        <v>12494</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7684</v>
+        <v>8228</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14627</v>
+        <v>13479</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14885</v>
+        <v>14749</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9470</v>
+        <v>9546</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>18982</v>
+        <v>18289</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>21935</v>
+        <v>22585</v>
       </c>
     </row>
     <row r="8">
@@ -1516,24 +1516,24 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>2050</v>
+        <v>2097</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="n">
-        <v>1051</v>
+        <v>1029</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>4968</v>
+        <v>5066</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2005</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="11">
@@ -1545,24 +1545,24 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>11574</v>
+        <v>12642</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9972</v>
+        <v>9445</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>10263</v>
+        <v>9700</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8757</v>
+        <v>8619</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>17845</v>
+        <v>18576</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12614</v>
+        <v>13207</v>
       </c>
     </row>
     <row r="12">
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1928</v>
+        <v>1988</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5276</v>
+        <v>5190</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -1682,31 +1682,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4963</v>
+        <v>5184</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11306</v>
+        <v>11684</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5755</v>
+        <v>5211</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5092</v>
+        <v>5028</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11454</v>
+        <v>11194</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5461</v>
+        <v>4272</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6730</v>
+        <v>5902</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18521</v>
+        <v>18420</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6552</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="16">
@@ -1799,14 +1799,14 @@
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2100</v>
+        <v>2011</v>
       </c>
       <c r="K18" s="6" t="inlineStr"/>
     </row>
@@ -1819,21 +1819,21 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>6901</v>
+        <v>7150</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>4990</v>
+        <v>5006</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9035</v>
+        <v>9785</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>5004</v>
+        <v>4918</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12165</v>
+        <v>11493</v>
       </c>
       <c r="K19" s="6" t="inlineStr"/>
     </row>
@@ -1922,28 +1922,28 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9484</v>
+        <v>9281</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5413</v>
+        <v>5281</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1798</v>
+        <v>1873</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12304</v>
+        <v>12077</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5128</v>
+        <v>5435</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2895</v>
+        <v>2920</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>26056</v>
+        <v>24919</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>12913</v>
+        <v>13013</v>
       </c>
     </row>
     <row r="23">
@@ -1954,31 +1954,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6579</v>
+        <v>6470</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26433</v>
+        <v>26263</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>18415</v>
+        <v>17684</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10536</v>
+        <v>11543</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>29293</v>
+        <v>29882</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>18303</v>
+        <v>19432</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>13139</v>
+        <v>13043</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>49377</v>
+        <v>49577</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>31345</v>
+        <v>32509</v>
       </c>
     </row>
     <row r="24">
